--- a/result/0-shot/Baichuan-13B/extract/singledrug(chemical)/extract.xlsx
+++ b/result/0-shot/Baichuan-13B/extract/singledrug(chemical)/extract.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>（A）硝普钠</t>
+          <t>（G）硝苯地平</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -481,12 +481,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>（G）乌拉地尔</t>
+          <t>（B）倍他洛尔</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>（A）阿司匹林</t>
+          <t>（E）依那普利</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>（A）吲哒帕胺缓释片</t>
+          <t>（A）</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>（B）利血平</t>
+          <t>（D）缬沙坦</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>（A）巴尼地平</t>
+          <t>（A）血压正常高值</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
